--- a/Code/Results/Cases/Case_3_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.58382618110935</v>
+        <v>18.96118728265645</v>
       </c>
       <c r="C2">
-        <v>11.11495568024454</v>
+        <v>8.965750565538047</v>
       </c>
       <c r="D2">
-        <v>5.3894899453115</v>
+        <v>8.757245386148615</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.37331770310748</v>
+        <v>35.16409869795943</v>
       </c>
       <c r="G2">
-        <v>2.089520886660164</v>
+        <v>3.666717079945277</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.917507476512158</v>
+        <v>10.38146579863548</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.789340355902201</v>
+        <v>11.7736932647385</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.33818085867694</v>
+        <v>18.40874426480805</v>
       </c>
       <c r="O2">
-        <v>17.7906482423918</v>
+        <v>26.68862419243844</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.21592322739369</v>
+        <v>18.55484199323308</v>
       </c>
       <c r="C3">
-        <v>10.63281689815996</v>
+        <v>8.767467454062009</v>
       </c>
       <c r="D3">
-        <v>5.303697814686309</v>
+        <v>8.75863141627808</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.92504172912963</v>
+        <v>35.21372646509152</v>
       </c>
       <c r="G3">
-        <v>2.095362397649268</v>
+        <v>3.668978235981334</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.979645518931442</v>
+        <v>10.40727553765922</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.580480536241772</v>
+        <v>11.75991285292342</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.50774253773915</v>
+        <v>18.46455057013625</v>
       </c>
       <c r="O3">
-        <v>17.57025256820418</v>
+        <v>26.74725699137069</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.33275988156116</v>
+        <v>18.30380673043957</v>
       </c>
       <c r="C4">
-        <v>10.32505384169156</v>
+        <v>8.64244192612008</v>
       </c>
       <c r="D4">
-        <v>5.252180872068743</v>
+        <v>8.760450027789034</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.66826092939496</v>
+        <v>35.25278025305077</v>
       </c>
       <c r="G4">
-        <v>2.099062112604815</v>
+        <v>3.670441102361348</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.019392888868405</v>
+        <v>10.42402224957335</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.452343021061353</v>
+        <v>11.75299255112578</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.61525972107166</v>
+        <v>18.50069017953968</v>
       </c>
       <c r="O4">
-        <v>17.45035602194789</v>
+        <v>26.78946247861314</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.9621098825395</v>
+        <v>18.20126434974348</v>
       </c>
       <c r="C5">
-        <v>10.19679318194849</v>
+        <v>8.59071449158276</v>
       </c>
       <c r="D5">
-        <v>5.231496954261395</v>
+        <v>8.761435203341607</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.56826274129382</v>
+        <v>35.27084891712004</v>
       </c>
       <c r="G5">
-        <v>2.100598888045358</v>
+        <v>3.671056027785638</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.035991690690033</v>
+        <v>10.43107339011294</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.400218783202648</v>
+        <v>11.7505623477816</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.65993226077919</v>
+        <v>18.51588976710829</v>
       </c>
       <c r="O5">
-        <v>17.4052993065981</v>
+        <v>26.80821799217248</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.89991878224405</v>
+        <v>18.18422682967573</v>
       </c>
       <c r="C6">
-        <v>10.17532717317344</v>
+        <v>8.582079564339207</v>
       </c>
       <c r="D6">
-        <v>5.228081626729943</v>
+        <v>8.761613554097078</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.55193815887524</v>
+        <v>35.27397916093767</v>
       </c>
       <c r="G6">
-        <v>2.100855846465869</v>
+        <v>3.671159272650876</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.038772172444998</v>
+        <v>10.43225793617222</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.391571212256247</v>
+        <v>11.75018242817807</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.66740202233892</v>
+        <v>18.51844221142537</v>
       </c>
       <c r="O6">
-        <v>17.39804483522011</v>
+        <v>26.81142621792832</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.3278045093762</v>
+        <v>18.30242460147214</v>
       </c>
       <c r="C7">
-        <v>10.3233354411926</v>
+        <v>8.641747401377188</v>
       </c>
       <c r="D7">
-        <v>5.251900644204924</v>
+        <v>8.760462324967564</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.66689353559311</v>
+        <v>35.25301521826982</v>
       </c>
       <c r="G7">
-        <v>2.099082719325598</v>
+        <v>3.670449319279049</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.0196151199394</v>
+        <v>10.42411642500871</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.451639588892165</v>
+        <v>11.75295819493511</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.61585871158347</v>
+        <v>18.5008932522995</v>
       </c>
       <c r="O7">
-        <v>17.44973308696071</v>
+        <v>26.78970912538798</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.12121527612942</v>
+        <v>18.82148302427738</v>
       </c>
       <c r="C8">
-        <v>10.95120570614816</v>
+        <v>8.898089863880886</v>
       </c>
       <c r="D8">
-        <v>5.359679005541695</v>
+        <v>8.757522943053694</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.21492459059349</v>
+        <v>35.17942688400883</v>
       </c>
       <c r="G8">
-        <v>2.091512015162038</v>
+        <v>3.667481298695914</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.938602023987049</v>
+        <v>10.39017865241394</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.717343177493643</v>
+        <v>11.76862345148812</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.39593989357513</v>
+        <v>18.42759792126768</v>
       </c>
       <c r="O8">
-        <v>17.71141083964834</v>
+        <v>26.70755081847898</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.36103866888731</v>
+        <v>19.82111640085552</v>
       </c>
       <c r="C9">
-        <v>12.08566232940143</v>
+        <v>9.372875578738551</v>
       </c>
       <c r="D9">
-        <v>5.579437580029187</v>
+        <v>8.75940108602085</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>25.43547196550869</v>
+        <v>35.10336803090799</v>
       </c>
       <c r="G9">
-        <v>2.077529244773167</v>
+        <v>3.66224946738797</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.792370520040039</v>
+        <v>10.33073822092527</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.236454971954938</v>
+        <v>11.81145751558219</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.99164703499372</v>
+        <v>18.29868822700542</v>
       </c>
       <c r="O9">
-        <v>18.34987708100833</v>
+        <v>26.59582593903145</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.5799647815959</v>
+        <v>20.53675997140988</v>
       </c>
       <c r="C10">
-        <v>12.85620065834058</v>
+        <v>9.702362608169377</v>
       </c>
       <c r="D10">
-        <v>5.744968313591129</v>
+        <v>8.765390916028229</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>26.41964901302373</v>
+        <v>35.08925350994475</v>
       </c>
       <c r="G10">
-        <v>2.067733200107433</v>
+        <v>3.658760550079538</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.692629599643072</v>
+        <v>10.29136754045221</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.613305512841814</v>
+        <v>11.85015311213044</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.71104823475562</v>
+        <v>18.21294523217205</v>
       </c>
       <c r="O10">
-        <v>18.89864862951905</v>
+        <v>26.54404156589909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.53712220367226</v>
+        <v>20.85675795872734</v>
       </c>
       <c r="C11">
-        <v>13.19250560242739</v>
+        <v>9.847618229514728</v>
       </c>
       <c r="D11">
-        <v>5.82094466411812</v>
+        <v>8.769105335777363</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.88593241579611</v>
+        <v>35.09191751299467</v>
       </c>
       <c r="G11">
-        <v>2.063368664198045</v>
+        <v>3.657249603091411</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.648930734827854</v>
+        <v>10.27438312165175</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.783149535532248</v>
+        <v>11.86928770243605</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.58699407506454</v>
+        <v>18.17587121259213</v>
       </c>
       <c r="O11">
-        <v>19.16613599819842</v>
+        <v>26.52709558810103</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.89215304562248</v>
+        <v>20.97702062242284</v>
       </c>
       <c r="C12">
-        <v>13.31777870690255</v>
+        <v>9.901924075588241</v>
       </c>
       <c r="D12">
-        <v>5.84979534067037</v>
+        <v>8.770653104124037</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>27.06513400439004</v>
+        <v>35.09423230810105</v>
       </c>
       <c r="G12">
-        <v>2.061728089189228</v>
+        <v>3.656688339472589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.632624908757111</v>
+        <v>10.26808409669232</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.847193380682189</v>
+        <v>11.87675017927269</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.5405398995188</v>
+        <v>18.16210886505385</v>
       </c>
       <c r="O12">
-        <v>19.27002714526321</v>
+        <v>26.5216311449524</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.81601951079487</v>
+        <v>20.95116229207878</v>
       </c>
       <c r="C13">
-        <v>13.29089176749983</v>
+        <v>9.890259947565546</v>
       </c>
       <c r="D13">
-        <v>5.843578528794395</v>
+        <v>8.770313502958293</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>27.02642336684309</v>
+        <v>35.09367570765855</v>
       </c>
       <c r="G13">
-        <v>2.062080891536413</v>
+        <v>3.65680873376488</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.636125872055263</v>
+        <v>10.26943481432201</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.833413148370632</v>
+        <v>11.87513342701536</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.55052128249898</v>
+        <v>18.16506053680554</v>
       </c>
       <c r="O13">
-        <v>19.24753622643543</v>
+        <v>26.52276561559797</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.5664790633587</v>
+        <v>20.86667098338548</v>
       </c>
       <c r="C14">
-        <v>13.20285370635428</v>
+        <v>9.852100201944751</v>
       </c>
       <c r="D14">
-        <v>5.823316715274926</v>
+        <v>8.769229848342901</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>26.90062294631634</v>
+        <v>35.09208178419404</v>
       </c>
       <c r="G14">
-        <v>2.063233455047553</v>
+        <v>3.657203209474149</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.647584385836883</v>
+        <v>10.27386224218725</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.788424152580335</v>
+        <v>11.86989732498879</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.58316174937647</v>
+        <v>18.17473343388196</v>
       </c>
       <c r="O14">
-        <v>19.17463091148445</v>
+        <v>26.52662692329265</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.41266424778092</v>
+        <v>20.81479534806174</v>
       </c>
       <c r="C15">
-        <v>13.14865636465114</v>
+        <v>9.828634235644044</v>
       </c>
       <c r="D15">
-        <v>5.810915711734288</v>
+        <v>8.768584432894436</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>26.82390793171971</v>
+        <v>35.0912755109684</v>
       </c>
       <c r="G15">
-        <v>2.063940988442645</v>
+        <v>3.657446255003619</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.654634616607711</v>
+        <v>10.27659142464247</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.760830408597185</v>
+        <v>11.86671816065085</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.60322323055202</v>
+        <v>18.18069438166819</v>
       </c>
       <c r="O15">
-        <v>19.1303137474297</v>
+        <v>26.5291161970144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.51636847386418</v>
+        <v>20.51572559998337</v>
       </c>
       <c r="C16">
-        <v>12.83393312744625</v>
+        <v>9.692773719894864</v>
       </c>
       <c r="D16">
-        <v>5.740015190157141</v>
+        <v>8.765167990267136</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>26.38954651108076</v>
+        <v>35.08926220946888</v>
       </c>
       <c r="G16">
-        <v>2.068020193883159</v>
+        <v>3.658860822203537</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.695519204454357</v>
+        <v>10.29249609443341</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.602169959434514</v>
+        <v>11.8489331375817</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.71922819930784</v>
+        <v>18.21540688524964</v>
       </c>
       <c r="O16">
-        <v>18.8815297568201</v>
+        <v>26.54528223536958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.95320059962696</v>
+        <v>20.33074953513401</v>
       </c>
       <c r="C17">
-        <v>12.63719193337817</v>
+        <v>9.608217180807502</v>
       </c>
       <c r="D17">
-        <v>5.696680556775477</v>
+        <v>8.763324808807758</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>26.127807533354</v>
+        <v>35.09035397966886</v>
       </c>
       <c r="G17">
-        <v>2.070545452115023</v>
+        <v>3.659748085193924</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.721030050662064</v>
+        <v>10.30248979371058</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.504397124544598</v>
+        <v>11.83841239223965</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.79131696445567</v>
+        <v>18.23719579657669</v>
       </c>
       <c r="O17">
-        <v>18.73350495309644</v>
+        <v>26.556894367252</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.62435830986519</v>
+        <v>20.22384002988365</v>
       </c>
       <c r="C18">
-        <v>12.52269479014126</v>
+        <v>9.559148560977874</v>
       </c>
       <c r="D18">
-        <v>5.671820169492233</v>
+        <v>8.762357876981403</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>25.97901308081881</v>
+        <v>35.09183712324398</v>
       </c>
       <c r="G18">
-        <v>2.072006612879639</v>
+        <v>3.660265589000166</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.735860654828147</v>
+        <v>10.30832504607913</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.44801366046867</v>
+        <v>11.83250554529518</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.83311809710082</v>
+        <v>18.24990999862441</v>
       </c>
       <c r="O18">
-        <v>18.65004334424502</v>
+        <v>26.56419552750541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.51216981788854</v>
+        <v>20.18755729695957</v>
       </c>
       <c r="C19">
-        <v>12.48369962807789</v>
+        <v>9.542461307687143</v>
       </c>
       <c r="D19">
-        <v>5.663414493991192</v>
+        <v>8.762046533415226</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>25.92893585484305</v>
+        <v>35.09248616491143</v>
       </c>
       <c r="G19">
-        <v>2.072502860540901</v>
+        <v>3.66044204066085</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.7409090509442</v>
+        <v>10.3103157435278</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.428899362483854</v>
+        <v>11.83053049847964</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.84732907571403</v>
+        <v>18.25424605997522</v>
       </c>
       <c r="O19">
-        <v>18.62207186699184</v>
+        <v>26.56677436510511</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.01365967116067</v>
+        <v>20.35049483401956</v>
       </c>
       <c r="C20">
-        <v>12.65827400235213</v>
+        <v>9.617263531076343</v>
       </c>
       <c r="D20">
-        <v>5.701287049304153</v>
+        <v>8.763511378809429</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>26.15548919329744</v>
+        <v>35.09014924993356</v>
       </c>
       <c r="G20">
-        <v>2.070275740849958</v>
+        <v>3.65965289249359</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.718298075140626</v>
+        <v>10.30141693210486</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.514820774164388</v>
+        <v>11.83951742370696</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.78360801766495</v>
+        <v>18.23485752095834</v>
       </c>
       <c r="O20">
-        <v>18.74908849385925</v>
+        <v>26.55559382796137</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.63997589034708</v>
+        <v>20.89151380433818</v>
       </c>
       <c r="C21">
-        <v>13.22876924316693</v>
+        <v>9.863327877308942</v>
       </c>
       <c r="D21">
-        <v>5.829266057868441</v>
+        <v>8.769544321013688</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>26.9375025039871</v>
+        <v>35.0925145217595</v>
       </c>
       <c r="G21">
-        <v>2.062894597060379</v>
+        <v>3.65708704703245</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.644212162475793</v>
+        <v>10.27255820421257</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.801646226860358</v>
+        <v>11.871429445965</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.57356021538626</v>
+        <v>18.17188476474394</v>
       </c>
       <c r="O21">
-        <v>19.19597417514083</v>
+        <v>26.52546689608439</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.65964049125729</v>
+        <v>21.2397277156709</v>
       </c>
       <c r="C22">
-        <v>13.58949827242984</v>
+        <v>10.0200553803368</v>
       </c>
       <c r="D22">
-        <v>5.913367475368548</v>
+        <v>8.774309652990304</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>27.46390878522287</v>
+        <v>35.10167182671345</v>
       </c>
       <c r="G22">
-        <v>2.058141065075298</v>
+        <v>3.655473622330938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.597204165636939</v>
+        <v>10.25447006707285</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.987499187679919</v>
+        <v>11.89354661969574</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.43933147451049</v>
+        <v>18.13234131571138</v>
       </c>
       <c r="O22">
-        <v>19.50320496420099</v>
+        <v>26.51133044596521</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.11935085079724</v>
+        <v>21.05440710834889</v>
       </c>
       <c r="C23">
-        <v>13.3980882543998</v>
+        <v>9.936791572697052</v>
       </c>
       <c r="D23">
-        <v>5.86844422438686</v>
+        <v>8.771691432097349</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>27.18156682177949</v>
+        <v>35.09608833293733</v>
       </c>
       <c r="G23">
-        <v>2.060672019575533</v>
+        <v>3.656328945009201</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.622163517661831</v>
+        <v>10.26405350033238</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.888465798120514</v>
+        <v>11.88162815424805</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.51069026406187</v>
+        <v>18.153299104708</v>
       </c>
       <c r="O23">
-        <v>19.33783239327386</v>
+        <v>26.51836668333208</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.9863419221608</v>
+        <v>20.34156973318771</v>
       </c>
       <c r="C24">
-        <v>12.64874711962401</v>
+        <v>9.61317509373227</v>
       </c>
       <c r="D24">
-        <v>5.699204286795425</v>
+        <v>8.763426741572982</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>26.14296907017721</v>
+        <v>35.09023914346094</v>
       </c>
       <c r="G24">
-        <v>2.070397648094741</v>
+        <v>3.659695906044353</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.719532690296882</v>
+        <v>10.30190169326073</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.510108776233171</v>
+        <v>11.83901739742454</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.78709212300739</v>
+        <v>18.23591407133231</v>
       </c>
       <c r="O24">
-        <v>18.74203806991056</v>
+        <v>26.55617985446299</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.49701482215774</v>
+        <v>19.55345904330934</v>
       </c>
       <c r="C25">
-        <v>11.78958390341434</v>
+        <v>9.247671643820787</v>
       </c>
       <c r="D25">
-        <v>5.519196897993657</v>
+        <v>8.758079668304982</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>25.0897870934888</v>
+        <v>35.11661748493612</v>
       </c>
       <c r="G25">
-        <v>2.0812244304662</v>
+        <v>3.663602215912405</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.830579188708959</v>
+        <v>10.34606075687793</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.096593984352698</v>
+        <v>11.79858854771219</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.09813734445562</v>
+        <v>18.33198211886169</v>
       </c>
       <c r="O25">
-        <v>18.16336282473693</v>
+        <v>26.62074175876325</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_230/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_230/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.96118728265645</v>
+        <v>21.58382618110934</v>
       </c>
       <c r="C2">
-        <v>8.965750565538047</v>
+        <v>11.11495568024459</v>
       </c>
       <c r="D2">
-        <v>8.757245386148615</v>
+        <v>5.389489945311608</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.16409869795943</v>
+        <v>24.37331770310737</v>
       </c>
       <c r="G2">
-        <v>3.666717079945277</v>
+        <v>2.08952088666003</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.38146579863548</v>
+        <v>5.917507476512224</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.7736932647385</v>
+        <v>7.789340355902269</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.40874426480805</v>
+        <v>12.3381808586769</v>
       </c>
       <c r="O2">
-        <v>26.68862419243844</v>
+        <v>17.79064824239165</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.55484199323308</v>
+        <v>20.21592322739366</v>
       </c>
       <c r="C3">
-        <v>8.767467454062009</v>
+        <v>10.63281689816005</v>
       </c>
       <c r="D3">
-        <v>8.75863141627808</v>
+        <v>5.303697814686426</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.21372646509152</v>
+        <v>23.92504172912945</v>
       </c>
       <c r="G3">
-        <v>3.668978235981334</v>
+        <v>2.095362397649533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.40727553765922</v>
+        <v>5.979645518931474</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.75991285292342</v>
+        <v>7.580480536241799</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.46455057013625</v>
+        <v>12.50774253773911</v>
       </c>
       <c r="O3">
-        <v>26.74725699137069</v>
+        <v>17.57025256820399</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.30380673043957</v>
+        <v>19.33275988156118</v>
       </c>
       <c r="C4">
-        <v>8.64244192612008</v>
+        <v>10.32505384169155</v>
       </c>
       <c r="D4">
-        <v>8.760450027789034</v>
+        <v>5.25218087206859</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.25278025305077</v>
+        <v>23.66826092939472</v>
       </c>
       <c r="G4">
-        <v>3.670441102361348</v>
+        <v>2.099062112604814</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.42402224957335</v>
+        <v>6.019392888868443</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.75299255112578</v>
+        <v>7.452343021061295</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.50069017953968</v>
+        <v>12.6152597210715</v>
       </c>
       <c r="O4">
-        <v>26.78946247861314</v>
+        <v>17.45035602194777</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.20126434974348</v>
+        <v>18.9621098825395</v>
       </c>
       <c r="C5">
-        <v>8.59071449158276</v>
+        <v>10.19679318194848</v>
       </c>
       <c r="D5">
-        <v>8.761435203341607</v>
+        <v>5.231496954261249</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.27084891712004</v>
+        <v>23.56826274129384</v>
       </c>
       <c r="G5">
-        <v>3.671056027785638</v>
+        <v>2.100598888045224</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.43107339011294</v>
+        <v>6.035991690690065</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.7505623477816</v>
+        <v>7.400218783202618</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.51588976710829</v>
+        <v>12.65993226077918</v>
       </c>
       <c r="O5">
-        <v>26.80821799217248</v>
+        <v>17.40529930659818</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.18422682967573</v>
+        <v>18.8999187822441</v>
       </c>
       <c r="C6">
-        <v>8.582079564339207</v>
+        <v>10.17532717317326</v>
       </c>
       <c r="D6">
-        <v>8.761613554097078</v>
+        <v>5.228081626729879</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.27397916093767</v>
+        <v>23.55193815887552</v>
       </c>
       <c r="G6">
-        <v>3.671159272650876</v>
+        <v>2.100855846465869</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.43225793617222</v>
+        <v>6.038772172445031</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.75018242817807</v>
+        <v>7.391571212256289</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.51844221142537</v>
+        <v>12.66740202233898</v>
       </c>
       <c r="O6">
-        <v>26.81142621792832</v>
+        <v>17.39804483522034</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.30242460147214</v>
+        <v>19.32780450937623</v>
       </c>
       <c r="C7">
-        <v>8.641747401377188</v>
+        <v>10.32333544119271</v>
       </c>
       <c r="D7">
-        <v>8.760462324967564</v>
+        <v>5.251900644204854</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.25301521826982</v>
+        <v>23.66689353559327</v>
       </c>
       <c r="G7">
-        <v>3.670449319279049</v>
+        <v>2.099082719325597</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.42411642500871</v>
+        <v>6.019615119939433</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.75295819493511</v>
+        <v>7.451639588892143</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.5008932522995</v>
+        <v>12.61585871158354</v>
       </c>
       <c r="O7">
-        <v>26.78970912538798</v>
+        <v>17.44973308696084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.82148302427738</v>
+        <v>21.12121527612941</v>
       </c>
       <c r="C8">
-        <v>8.898089863880886</v>
+        <v>10.95120570614826</v>
       </c>
       <c r="D8">
-        <v>8.757522943053694</v>
+        <v>5.359679005541643</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.17942688400883</v>
+        <v>24.21492459059353</v>
       </c>
       <c r="G8">
-        <v>3.667481298695914</v>
+        <v>2.091512015162172</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.39017865241394</v>
+        <v>5.938602023987116</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.76862345148812</v>
+        <v>7.71734317749366</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.42759792126768</v>
+        <v>12.39593989357516</v>
       </c>
       <c r="O8">
-        <v>26.70755081847898</v>
+        <v>17.71141083964842</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.82111640085552</v>
+        <v>24.3610386688873</v>
       </c>
       <c r="C9">
-        <v>9.372875578738551</v>
+        <v>12.08566232940143</v>
       </c>
       <c r="D9">
-        <v>8.75940108602085</v>
+        <v>5.579437580029185</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.10336803090799</v>
+        <v>25.43547196550866</v>
       </c>
       <c r="G9">
-        <v>3.66224946738797</v>
+        <v>2.077529244773034</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.33073822092527</v>
+        <v>5.792370520040039</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.81145751558219</v>
+        <v>8.236454971954942</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.29868822700542</v>
+        <v>11.99164703499372</v>
       </c>
       <c r="O9">
-        <v>26.59582593903145</v>
+        <v>18.3498770810083</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.53675997140988</v>
+        <v>26.57996478159586</v>
       </c>
       <c r="C10">
-        <v>9.702362608169377</v>
+        <v>12.85620065834058</v>
       </c>
       <c r="D10">
-        <v>8.765390916028229</v>
+        <v>5.744968313591079</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.08925350994475</v>
+        <v>26.41964901302377</v>
       </c>
       <c r="G10">
-        <v>3.658760550079538</v>
+        <v>2.067733200107298</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.29136754045221</v>
+        <v>5.692629599643107</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.85015311213044</v>
+        <v>8.613305512841821</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.21294523217205</v>
+        <v>11.71104823475562</v>
       </c>
       <c r="O10">
-        <v>26.54404156589909</v>
+        <v>18.89864862951909</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.85675795872734</v>
+        <v>27.53712220367224</v>
       </c>
       <c r="C11">
-        <v>9.847618229514728</v>
+        <v>13.19250560242746</v>
       </c>
       <c r="D11">
-        <v>8.769105335777363</v>
+        <v>5.82094466411812</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.09191751299467</v>
+        <v>26.88593241579618</v>
       </c>
       <c r="G11">
-        <v>3.657249603091411</v>
+        <v>2.063368664197911</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.27438312165175</v>
+        <v>5.64893073482792</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.86928770243605</v>
+        <v>8.783149535532237</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.17587121259213</v>
+        <v>11.5869940750645</v>
       </c>
       <c r="O11">
-        <v>26.52709558810103</v>
+        <v>19.16613599819845</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.97702062242284</v>
+        <v>27.89215304562245</v>
       </c>
       <c r="C12">
-        <v>9.901924075588241</v>
+        <v>13.31777870690262</v>
       </c>
       <c r="D12">
-        <v>8.770653104124037</v>
+        <v>5.849795340670273</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.09423230810105</v>
+        <v>27.06513400439004</v>
       </c>
       <c r="G12">
-        <v>3.656688339472589</v>
+        <v>2.061728089189494</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.26808409669232</v>
+        <v>5.632624908757142</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.87675017927269</v>
+        <v>8.847193380682135</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.16210886505385</v>
+        <v>11.54053989951883</v>
       </c>
       <c r="O12">
-        <v>26.5216311449524</v>
+        <v>19.27002714526326</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.95116229207878</v>
+        <v>27.81601951079483</v>
       </c>
       <c r="C13">
-        <v>9.890259947565546</v>
+        <v>13.2908917674998</v>
       </c>
       <c r="D13">
-        <v>8.770313502958293</v>
+        <v>5.843578528794358</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.09367570765855</v>
+        <v>27.02642336684323</v>
       </c>
       <c r="G13">
-        <v>3.65680873376488</v>
+        <v>2.062080891536282</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.26943481432201</v>
+        <v>5.636125872055262</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.87513342701536</v>
+        <v>8.83341314837058</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.16506053680554</v>
+        <v>11.55052128249901</v>
       </c>
       <c r="O13">
-        <v>26.52276561559797</v>
+        <v>19.24753622643557</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.86667098338548</v>
+        <v>27.56647906335872</v>
       </c>
       <c r="C14">
-        <v>9.852100201944751</v>
+        <v>13.20285370635419</v>
       </c>
       <c r="D14">
-        <v>8.769229848342901</v>
+        <v>5.823316715274944</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.09208178419404</v>
+        <v>26.90062294631627</v>
       </c>
       <c r="G14">
-        <v>3.657203209474149</v>
+        <v>2.063233455047553</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.27386224218725</v>
+        <v>5.647584385836817</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.86989732498879</v>
+        <v>8.788424152580301</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.17473343388196</v>
+        <v>11.58316174937644</v>
       </c>
       <c r="O14">
-        <v>26.52662692329265</v>
+        <v>19.17463091148436</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.81479534806174</v>
+        <v>27.41266424778093</v>
       </c>
       <c r="C15">
-        <v>9.828634235644044</v>
+        <v>13.1486563646512</v>
       </c>
       <c r="D15">
-        <v>8.768584432894436</v>
+        <v>5.810915711734324</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.0912755109684</v>
+        <v>26.8239079317197</v>
       </c>
       <c r="G15">
-        <v>3.657446255003619</v>
+        <v>2.063940988442645</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.27659142464247</v>
+        <v>5.654634616607648</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.86671816065085</v>
+        <v>8.760830408597158</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.18069438166819</v>
+        <v>11.60322323055205</v>
       </c>
       <c r="O15">
-        <v>26.5291161970144</v>
+        <v>19.13031374742966</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.51572559998337</v>
+        <v>26.51636847386415</v>
       </c>
       <c r="C16">
-        <v>9.692773719894864</v>
+        <v>12.83393312744629</v>
       </c>
       <c r="D16">
-        <v>8.765167990267136</v>
+        <v>5.740015190157204</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.08926220946888</v>
+        <v>26.38954651108085</v>
       </c>
       <c r="G16">
-        <v>3.658860822203537</v>
+        <v>2.068020193883024</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.29249609443341</v>
+        <v>5.695519204454294</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.8489331375817</v>
+        <v>8.602169959434503</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.21540688524964</v>
+        <v>11.71922819930788</v>
       </c>
       <c r="O16">
-        <v>26.54528223536958</v>
+        <v>18.88152975682017</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.33074953513401</v>
+        <v>25.95320059962695</v>
       </c>
       <c r="C17">
-        <v>9.608217180807502</v>
+        <v>12.63719193337827</v>
       </c>
       <c r="D17">
-        <v>8.763324808807758</v>
+        <v>5.696680556775477</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.09035397966886</v>
+        <v>26.12780753335401</v>
       </c>
       <c r="G17">
-        <v>3.659748085193924</v>
+        <v>2.070545452114757</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.30248979371058</v>
+        <v>5.721030050662126</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.83841239223965</v>
+        <v>8.504397124544571</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.23719579657669</v>
+        <v>11.79131696445567</v>
       </c>
       <c r="O17">
-        <v>26.556894367252</v>
+        <v>18.73350495309644</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.22384002988365</v>
+        <v>25.62435830986512</v>
       </c>
       <c r="C18">
-        <v>9.559148560977874</v>
+        <v>12.52269479014112</v>
       </c>
       <c r="D18">
-        <v>8.762357876981403</v>
+        <v>5.671820169492078</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.09183712324398</v>
+        <v>25.97901308081893</v>
       </c>
       <c r="G18">
-        <v>3.660265589000166</v>
+        <v>2.072006612879505</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.30832504607913</v>
+        <v>5.735860654828208</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.83250554529518</v>
+        <v>8.448013660468723</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.24990999862441</v>
+        <v>11.83311809710092</v>
       </c>
       <c r="O18">
-        <v>26.56419552750541</v>
+        <v>18.65004334424515</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.18755729695957</v>
+        <v>25.51216981788852</v>
       </c>
       <c r="C19">
-        <v>9.542461307687143</v>
+        <v>12.4836996280779</v>
       </c>
       <c r="D19">
-        <v>8.762046533415226</v>
+        <v>5.663414493991292</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.09248616491143</v>
+        <v>25.92893585484323</v>
       </c>
       <c r="G19">
-        <v>3.66044204066085</v>
+        <v>2.072502860540904</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.3103157435278</v>
+        <v>5.740909050944202</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.83053049847964</v>
+        <v>8.428899362483895</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.25424605997522</v>
+        <v>11.84732907571407</v>
       </c>
       <c r="O19">
-        <v>26.56677436510511</v>
+        <v>18.62207186699194</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.35049483401956</v>
+        <v>26.01365967116071</v>
       </c>
       <c r="C20">
-        <v>9.617263531076343</v>
+        <v>12.6582740023521</v>
       </c>
       <c r="D20">
-        <v>8.763511378809429</v>
+        <v>5.701287049304068</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.09014924993356</v>
+        <v>26.15548919329748</v>
       </c>
       <c r="G20">
-        <v>3.65965289249359</v>
+        <v>2.070275740849958</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.30141693210486</v>
+        <v>5.718298075140693</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.83951742370696</v>
+        <v>8.51482077416437</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.23485752095834</v>
+        <v>11.78360801766501</v>
       </c>
       <c r="O20">
-        <v>26.55559382796137</v>
+        <v>18.74908849385929</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.89151380433818</v>
+        <v>27.63997589034706</v>
       </c>
       <c r="C21">
-        <v>9.863327877308942</v>
+        <v>13.22876924316684</v>
       </c>
       <c r="D21">
-        <v>8.769544321013688</v>
+        <v>5.829266057868485</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.0925145217595</v>
+        <v>26.93750250398719</v>
       </c>
       <c r="G21">
-        <v>3.65708704703245</v>
+        <v>2.062894597060246</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.27255820421257</v>
+        <v>5.644212162475791</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.871429445965</v>
+        <v>8.801646226860369</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.17188476474394</v>
+        <v>11.57356021538635</v>
       </c>
       <c r="O21">
-        <v>26.52546689608439</v>
+        <v>19.1959741751409</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.2397277156709</v>
+        <v>28.6596404912572</v>
       </c>
       <c r="C22">
-        <v>10.0200553803368</v>
+        <v>13.5894982724296</v>
       </c>
       <c r="D22">
-        <v>8.774309652990304</v>
+        <v>5.913367475368504</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.10167182671345</v>
+        <v>27.46390878522291</v>
       </c>
       <c r="G22">
-        <v>3.655473622330938</v>
+        <v>2.058141065075032</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.25447006707285</v>
+        <v>5.597204165637</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.89354661969574</v>
+        <v>8.987499187679951</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.13234131571138</v>
+        <v>11.43933147451057</v>
       </c>
       <c r="O22">
-        <v>26.51133044596521</v>
+        <v>19.50320496420107</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.05440710834889</v>
+        <v>28.11935085079719</v>
       </c>
       <c r="C23">
-        <v>9.936791572697052</v>
+        <v>13.39808825439989</v>
       </c>
       <c r="D23">
-        <v>8.771691432097349</v>
+        <v>5.868444224386824</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.09608833293733</v>
+        <v>27.18156682177952</v>
       </c>
       <c r="G23">
-        <v>3.656328945009201</v>
+        <v>2.060672019575399</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.26405350033238</v>
+        <v>5.622163517661861</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.88162815424805</v>
+        <v>8.888465798120516</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.153299104708</v>
+        <v>11.51069026406187</v>
       </c>
       <c r="O23">
-        <v>26.51836668333208</v>
+        <v>19.33783239327389</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.34156973318771</v>
+        <v>25.98634192216081</v>
       </c>
       <c r="C24">
-        <v>9.61317509373227</v>
+        <v>12.64874711962401</v>
       </c>
       <c r="D24">
-        <v>8.763426741572982</v>
+        <v>5.699204286795386</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.09023914346094</v>
+        <v>26.14296907017721</v>
       </c>
       <c r="G24">
-        <v>3.659695906044353</v>
+        <v>2.070397648094873</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.30190169326073</v>
+        <v>5.71953269029695</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.83901739742454</v>
+        <v>8.510108776233173</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.23591407133231</v>
+        <v>11.78709212300739</v>
       </c>
       <c r="O24">
-        <v>26.55617985446299</v>
+        <v>18.74203806991057</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.55345904330934</v>
+        <v>23.4970148221578</v>
       </c>
       <c r="C25">
-        <v>9.247671643820787</v>
+        <v>11.7895839034141</v>
       </c>
       <c r="D25">
-        <v>8.758079668304982</v>
+        <v>5.519196897993547</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.11661748493612</v>
+        <v>25.08978709348868</v>
       </c>
       <c r="G25">
-        <v>3.663602215912405</v>
+        <v>2.081224430466199</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.34606075687793</v>
+        <v>5.830579188708957</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.79858854771219</v>
+        <v>8.096593984352696</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.33198211886169</v>
+        <v>12.09813734445556</v>
       </c>
       <c r="O25">
-        <v>26.62074175876325</v>
+        <v>18.16336282473687</v>
       </c>
     </row>
   </sheetData>
